--- a/ExampleFolder/InputData/v_example/Machines - Data/Industrial_electric_process_heaters/Industrial_electric_process_heaters.xlsx
+++ b/ExampleFolder/InputData/v_example/Machines - Data/Industrial_electric_process_heaters/Industrial_electric_process_heaters.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D49165-561B-4F63-B4D6-A89679D70BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E159718B-1E59-461E-843A-E8B2F19DFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REFS" sheetId="6" r:id="rId1"/>
-    <sheet name="FIN_ETA" sheetId="2" r:id="rId2"/>
-    <sheet name="Calcs" sheetId="5" r:id="rId3"/>
-    <sheet name="Electric_arc_furnaces" sheetId="8" r:id="rId4"/>
+    <sheet name="FIN_ETA" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Absc_graph">INDIRECT(#REF!)</definedName>
@@ -29,10 +26,8 @@
     <definedName name="Companies">#REF!</definedName>
     <definedName name="COP_max">'[2]Domestic refrigeration'!$B$12</definedName>
     <definedName name="Countries">#REF!</definedName>
-    <definedName name="deltaE_food" localSheetId="2">#REF!</definedName>
     <definedName name="deltaE_food">#REF!</definedName>
     <definedName name="EAF_min">[3]Freuhan_2000!$D$5</definedName>
-    <definedName name="Ep_tot_cap_2000" localSheetId="2">#REF!</definedName>
     <definedName name="Ep_tot_cap_2000">#REF!</definedName>
     <definedName name="eta_charcoal">[4]Afrane_2012!$B$6</definedName>
     <definedName name="GJ_kgCO2e.diesel">[5]Conversores!$W$5</definedName>
@@ -48,7 +43,6 @@
     <definedName name="l_MJ.Diesel">[7]Conversores!$N$5</definedName>
     <definedName name="l_MJ.NatGas">[1]Conversores!$N$9</definedName>
     <definedName name="l_MJ.Oil">[1]Conversores!$N$10</definedName>
-    <definedName name="N_ml" localSheetId="2">#REF!</definedName>
     <definedName name="N_ml">#REF!</definedName>
     <definedName name="Ord_graph">INDIRECT(#REF!)</definedName>
     <definedName name="phi_Combustible_renewables">[2]phi_heat!$C$17</definedName>
@@ -65,18 +59,13 @@
     <definedName name="phi_Phytomass">[2]phi_heat!$C$29</definedName>
     <definedName name="Region">#REF!</definedName>
     <definedName name="Report_type">#REF!</definedName>
-    <definedName name="S_food" localSheetId="2">#REF!</definedName>
     <definedName name="S_food">#REF!</definedName>
-    <definedName name="S_food_2000" localSheetId="2">#REF!</definedName>
     <definedName name="S_food_2000">#REF!</definedName>
-    <definedName name="S_food_S_food_2000" localSheetId="2">#REF!</definedName>
     <definedName name="S_food_S_food_2000">#REF!</definedName>
     <definedName name="T_0_ref">'[2]Domestic refrigeration'!$B$10</definedName>
     <definedName name="T_ref">'[2]Domestic refrigeration'!$B$11</definedName>
     <definedName name="Type">[8]MD!$D$2:$D$57</definedName>
-    <definedName name="w" localSheetId="2">#REF!</definedName>
     <definedName name="w">#REF!</definedName>
-    <definedName name="Year_Food" localSheetId="2">#REF!</definedName>
     <definedName name="Year_Food">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -99,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
@@ -122,18 +111,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Efficiency [-]</t>
-  </si>
-  <si>
-    <t>Source/Method</t>
-  </si>
-  <si>
-    <t>Type of Efficiency Data</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -154,18 +131,12 @@
   <si>
     <t>WRLD</t>
   </si>
-  <si>
-    <t>Electric arc furnaces</t>
-  </si>
-  <si>
-    <t>HTH.1600.C</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,70 +163,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -281,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,55 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -361,7 +226,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen"/>
@@ -451,7 +316,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FU Allocations"/>
@@ -597,7 +462,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="REFS"/>
@@ -652,7 +517,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="README"/>
@@ -695,7 +560,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen"/>
@@ -766,7 +631,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen"/>
@@ -852,7 +717,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen"/>
@@ -921,7 +786,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read_me"/>
@@ -1488,41 +1353,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="19"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BP39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,1163 +1576,27 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3">
-        <f>Electric_arc_furnaces!H2</f>
-        <v>9.6296296296296297E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <f>Electric_arc_furnaces!I2</f>
-        <v>9.7014925373134331E-2</v>
-      </c>
-      <c r="J2" s="3">
-        <f>Electric_arc_furnaces!J2</f>
-        <v>9.7744360902255634E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <f>Electric_arc_furnaces!K2</f>
-        <v>9.8484848484848495E-2</v>
-      </c>
-      <c r="L2" s="3">
-        <f>Electric_arc_furnaces!L2</f>
-        <v>9.9236641221374058E-2</v>
-      </c>
-      <c r="M2" s="3">
-        <f>Electric_arc_furnaces!M2</f>
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="3">
-        <f>Electric_arc_furnaces!N2</f>
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="3">
-        <f>Electric_arc_furnaces!O2</f>
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="3">
-        <f>Electric_arc_furnaces!P2</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>Electric_arc_furnaces!Q2</f>
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="3">
-        <f>Electric_arc_furnaces!R2</f>
-        <v>0.1</v>
-      </c>
-      <c r="S2" s="3">
-        <f>Electric_arc_furnaces!S2</f>
-        <v>0.10077519379844961</v>
-      </c>
-      <c r="T2" s="3">
-        <f>Electric_arc_furnaces!T2</f>
-        <v>0.1015625</v>
-      </c>
-      <c r="U2" s="3">
-        <f>Electric_arc_furnaces!U2</f>
-        <v>0.10236220472440946</v>
-      </c>
-      <c r="V2" s="3">
-        <f>Electric_arc_furnaces!V2</f>
-        <v>0.10317460317460318</v>
-      </c>
-      <c r="W2" s="3">
-        <f>Electric_arc_furnaces!W2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="X2" s="3">
-        <f>Electric_arc_furnaces!X2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="Y2" s="3">
-        <f>Electric_arc_furnaces!Y2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="Z2" s="3">
-        <f>Electric_arc_furnaces!Z2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="AA2" s="3">
-        <f>Electric_arc_furnaces!AA2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="AB2" s="3">
-        <f>Electric_arc_furnaces!AB2</f>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="AC2" s="3">
-        <f>Electric_arc_furnaces!AC2</f>
-        <v>0.10483870967741936</v>
-      </c>
-      <c r="AD2" s="3">
-        <f>Electric_arc_furnaces!AD2</f>
-        <v>0.1056910569105691</v>
-      </c>
-      <c r="AE2" s="3">
-        <f>Electric_arc_furnaces!AE2</f>
-        <v>0.10655737704918034</v>
-      </c>
-      <c r="AF2" s="3">
-        <f>Electric_arc_furnaces!AF2</f>
-        <v>0.10743801652892562</v>
-      </c>
-      <c r="AG2" s="3">
-        <f>Electric_arc_furnaces!AG2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AH2" s="3">
-        <f>Electric_arc_furnaces!AH2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AI2" s="3">
-        <f>Electric_arc_furnaces!AI2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AJ2" s="3">
-        <f>Electric_arc_furnaces!AJ2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AK2" s="3">
-        <f>Electric_arc_furnaces!AK2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AL2" s="3">
-        <f>Electric_arc_furnaces!AL2</f>
-        <v>0.10833333333333334</v>
-      </c>
-      <c r="AM2" s="3">
-        <f>Electric_arc_furnaces!AM2</f>
-        <v>0.1092436974789916</v>
-      </c>
-      <c r="AN2" s="3">
-        <f>Electric_arc_furnaces!AN2</f>
-        <v>0.11016949152542373</v>
-      </c>
-      <c r="AO2" s="3">
-        <f>Electric_arc_furnaces!AO2</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="AP2" s="3">
-        <f>Electric_arc_furnaces!AP2</f>
-        <v>0.11206896551724138</v>
-      </c>
-      <c r="AQ2" s="3">
-        <f>Electric_arc_furnaces!AQ2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AR2" s="3">
-        <f>Electric_arc_furnaces!AR2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AS2" s="3">
-        <f>Electric_arc_furnaces!AS2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AT2" s="3">
-        <f>Electric_arc_furnaces!AT2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AU2" s="3">
-        <f>Electric_arc_furnaces!AU2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AV2" s="3">
-        <f>Electric_arc_furnaces!AV2</f>
-        <v>0.11304347826086956</v>
-      </c>
-      <c r="AW2" s="3">
-        <f>Electric_arc_furnaces!AW2</f>
-        <v>0.11403508771929824</v>
-      </c>
-      <c r="AX2" s="3">
-        <f>Electric_arc_furnaces!AX2</f>
-        <v>0.11504424778761062</v>
-      </c>
-      <c r="AY2" s="3">
-        <f>Electric_arc_furnaces!AY2</f>
-        <v>0.11607142857142859</v>
-      </c>
-      <c r="AZ2" s="3">
-        <f>Electric_arc_furnaces!AZ2</f>
-        <v>0.11711711711711713</v>
-      </c>
-      <c r="BA2" s="3">
-        <f>Electric_arc_furnaces!BA2</f>
-        <v>0.11818181818181818</v>
-      </c>
-      <c r="BB2" s="3">
-        <f>Electric_arc_furnaces!BB2</f>
-        <v>0.11926605504587157</v>
-      </c>
-      <c r="BC2" s="3">
-        <f>Electric_arc_furnaces!BC2</f>
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="BD2" s="3">
-        <f>Electric_arc_furnaces!BD2</f>
-        <v>0.13</v>
-      </c>
-      <c r="BE2" s="3">
-        <f>Electric_arc_furnaces!BE2</f>
-        <v>0.125</v>
-      </c>
-      <c r="BF2" s="3">
-        <f>Electric_arc_furnaces!BF2</f>
-        <v>0.13131313131313133</v>
-      </c>
-      <c r="BG2" s="3">
-        <f>Electric_arc_furnaces!BG2</f>
-        <v>0.12745098039215688</v>
-      </c>
-      <c r="BH2" s="3">
-        <f>Electric_arc_furnaces!BH2</f>
-        <v>0.125</v>
-      </c>
-      <c r="BI2" s="3">
-        <f>Electric_arc_furnaces!BI2</f>
-        <v>0.12745098039215688</v>
-      </c>
-      <c r="BJ2" s="3">
-        <f>Electric_arc_furnaces!BJ2</f>
-        <v>0.13541666666666669</v>
-      </c>
-      <c r="BK2" s="3">
-        <f>Electric_arc_furnaces!BK2</f>
-        <v>0.13541666666666669</v>
-      </c>
-      <c r="BL2" s="3">
-        <f>Electric_arc_furnaces!BL2</f>
-        <v>0.13541666666666669</v>
-      </c>
-      <c r="BM2" s="3">
-        <f>Electric_arc_furnaces!BM2</f>
-        <v>0.13541666666666669</v>
-      </c>
-      <c r="BN2" s="3">
-        <f>Electric_arc_furnaces!BN2</f>
-        <v>0.13645906228131596</v>
-      </c>
-      <c r="BO2" s="3">
-        <f>Electric_arc_furnaces!BO2</f>
-        <v>0.13757054899948751</v>
-      </c>
-      <c r="BP2" s="3">
-        <f>Electric_arc_furnaces!BP2</f>
-        <v>0.13870029097963182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U63"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.109375" style="4"/>
-    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="4"/>
-    <col min="11" max="11" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="4"/>
-    <col min="15" max="15" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="4"/>
-    <col min="19" max="19" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1960</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1961</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1962</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1963</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1964</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1965</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1966</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1967</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1968</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1969</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1970</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1971</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1972</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1973</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1974</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1975</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1976</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1977</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1978</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1979</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1980</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1981</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1982</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1983</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1984</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1985</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1986</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1987</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1988</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1989</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1990</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1991</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1992</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1993</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1994</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1995</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1996</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1997</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1998</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1999</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>2001</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>2002</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>2003</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>2004</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>2005</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>2006</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>2007</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>2008</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>2009</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>2010</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>2011</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>2012</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>2015</v>
-      </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>2016</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>2019</v>
-      </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFC52C-1495-4380-BE55-208FD7966AE4}">
-  <dimension ref="A1:BP2"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1960</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1961</v>
-      </c>
-      <c r="J1" s="1">
-        <v>1962</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1963</v>
-      </c>
-      <c r="L1" s="1">
-        <v>1964</v>
-      </c>
-      <c r="M1" s="1">
-        <v>1965</v>
-      </c>
-      <c r="N1" s="1">
-        <v>1966</v>
-      </c>
-      <c r="O1" s="1">
-        <v>1967</v>
-      </c>
-      <c r="P1" s="1">
-        <v>1968</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>1969</v>
-      </c>
-      <c r="R1" s="1">
-        <v>1970</v>
-      </c>
-      <c r="S1" s="1">
-        <v>1971</v>
-      </c>
-      <c r="T1" s="1">
-        <v>1972</v>
-      </c>
-      <c r="U1" s="1">
-        <v>1973</v>
-      </c>
-      <c r="V1" s="1">
-        <v>1974</v>
-      </c>
-      <c r="W1" s="1">
-        <v>1975</v>
-      </c>
-      <c r="X1" s="1">
-        <v>1976</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>1977</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>1978</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>1979</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>1980</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>1981</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>1982</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>1983</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>1984</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>1985</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>1986</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>1987</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>1988</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>1989</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>1990</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>1991</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>1992</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>1993</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>1994</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>1995</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>1996</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>1997</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>1998</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>1999</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>2002</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>2004</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="3">
         <v>9.6296296296296297E-2</v>
@@ -3070,6 +1782,43 @@
         <v>0.13870029097963182</v>
       </c>
     </row>
+    <row r="3" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
